--- a/KBF26BENEFITSCHEME.xlsx
+++ b/KBF26BENEFITSCHEME.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>benefit code</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Egg (in dozen)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>vsdfds</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +444,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KBF26BENEFITSCHEME.xlsx
+++ b/KBF26BENEFITSCHEME.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>benefit code</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>vsdfds</t>
+  </si>
+  <si>
+    <t>261k01</t>
+  </si>
+  <si>
+    <t>261k02</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,8 +428,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123456</v>
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -445,8 +451,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>456</v>
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>

--- a/KBF26BENEFITSCHEME.xlsx
+++ b/KBF26BENEFITSCHEME.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>benefit code</t>
   </si>
@@ -35,12 +35,6 @@
     <t>vessel description</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>bwt</t>
-  </si>
-  <si>
     <t>vessel weight</t>
   </si>
   <si>
@@ -63,6 +57,9 @@
   </si>
   <si>
     <t>261k02</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,36 +412,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -452,13 +449,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>50</v>

--- a/KBF26BENEFITSCHEME.xlsx
+++ b/KBF26BENEFITSCHEME.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>benefit code</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Egg (in dozen)</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>vsdfds</t>
-  </si>
-  <si>
     <t>261k01</t>
   </si>
   <si>
@@ -60,6 +54,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>262k01</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>bucket</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,16 +429,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -449,25 +452,30 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/KBF26BENEFITSCHEME.xlsx
+++ b/KBF26BENEFITSCHEME.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>benefit code</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>bucket</t>
+  </si>
+  <si>
+    <t>262k02</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Dabri</t>
   </si>
 </sst>
 </file>
@@ -387,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,6 +487,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KBF26BENEFITSCHEME.xlsx
+++ b/KBF26BENEFITSCHEME.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
   <si>
     <t>benefit code</t>
   </si>
@@ -59,19 +59,286 @@
     <t>262k01</t>
   </si>
   <si>
-    <t>steel</t>
-  </si>
-  <si>
-    <t>bucket</t>
-  </si>
-  <si>
     <t>262k02</t>
   </si>
   <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Dabri</t>
+    <t>261k03</t>
+  </si>
+  <si>
+    <t>261k04</t>
+  </si>
+  <si>
+    <t>261k05</t>
+  </si>
+  <si>
+    <t>261k06</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>STEEL</t>
+  </si>
+  <si>
+    <t>PLATES</t>
+  </si>
+  <si>
+    <t>2pc</t>
+  </si>
+  <si>
+    <t>bucket,4ltr Sunpure oil</t>
+  </si>
+  <si>
+    <t>BUCKET</t>
+  </si>
+  <si>
+    <t>2PCS</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>1PC</t>
+  </si>
+  <si>
+    <t>ANDE</t>
+  </si>
+  <si>
+    <t>262k03</t>
+  </si>
+  <si>
+    <t>262k04</t>
+  </si>
+  <si>
+    <t>262k05</t>
+  </si>
+  <si>
+    <t>262k06</t>
+  </si>
+  <si>
+    <t>262k07</t>
+  </si>
+  <si>
+    <t>262k08</t>
+  </si>
+  <si>
+    <t>262k09</t>
+  </si>
+  <si>
+    <t>262k10</t>
+  </si>
+  <si>
+    <t>262k11</t>
+  </si>
+  <si>
+    <t>262k12</t>
+  </si>
+  <si>
+    <t>262k13</t>
+  </si>
+  <si>
+    <t>262k14</t>
+  </si>
+  <si>
+    <t>262k15</t>
+  </si>
+  <si>
+    <t>262k16</t>
+  </si>
+  <si>
+    <t>262k17</t>
+  </si>
+  <si>
+    <t>262k18</t>
+  </si>
+  <si>
+    <t>262k19</t>
+  </si>
+  <si>
+    <t>262k20</t>
+  </si>
+  <si>
+    <t>262k21</t>
+  </si>
+  <si>
+    <t>262k22</t>
+  </si>
+  <si>
+    <t>262k23</t>
+  </si>
+  <si>
+    <t>262k24</t>
+  </si>
+  <si>
+    <t>262k25</t>
+  </si>
+  <si>
+    <t>DABRI</t>
+  </si>
+  <si>
+    <t>TWO DABRI</t>
+  </si>
+  <si>
+    <t>RICE SORTING DABRI</t>
+  </si>
+  <si>
+    <t>SET VESSELS</t>
+  </si>
+  <si>
+    <t>SET BOX</t>
+  </si>
+  <si>
+    <t>BOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOX </t>
+  </si>
+  <si>
+    <t>BUCKET WITHOUT TOP</t>
+  </si>
+  <si>
+    <t>BUCKET WITH TOP</t>
+  </si>
+  <si>
+    <t>TIFFIN CARRIER</t>
+  </si>
+  <si>
+    <t>BIG VESSEL</t>
+  </si>
+  <si>
+    <t>DINNING SET</t>
+  </si>
+  <si>
+    <t>BRASS</t>
+  </si>
+  <si>
+    <t>BINDHIGE</t>
+  </si>
+  <si>
+    <t>CHIKKA GUNDI-1</t>
+  </si>
+  <si>
+    <t>2PC</t>
+  </si>
+  <si>
+    <t>GUNDI-2[BIG ONE]</t>
+  </si>
+  <si>
+    <t>DEEPALEKAMBA</t>
+  </si>
+  <si>
+    <t>1SET</t>
+  </si>
+  <si>
+    <t>COPPER</t>
+  </si>
+  <si>
+    <t>CU BOTTLE</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>POOJA SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHERS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.T RICE </t>
+  </si>
+  <si>
+    <t>Cu Small kalasa Bindhige</t>
+  </si>
+  <si>
+    <t>3 or 4</t>
+  </si>
+  <si>
+    <t>263k01</t>
+  </si>
+  <si>
+    <t>263k02</t>
+  </si>
+  <si>
+    <t>263k03</t>
+  </si>
+  <si>
+    <t>263k04</t>
+  </si>
+  <si>
+    <t>263k05</t>
+  </si>
+  <si>
+    <t>263k06</t>
+  </si>
+  <si>
+    <t>263k07</t>
+  </si>
+  <si>
+    <t>263k08</t>
+  </si>
+  <si>
+    <t>263k09</t>
+  </si>
+  <si>
+    <t>263k10</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>DOUBLE STOVE</t>
+  </si>
+  <si>
+    <t>1 PC</t>
+  </si>
+  <si>
+    <t>SINGLE STOVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRASS </t>
+  </si>
+  <si>
+    <t>GUNDI</t>
+  </si>
+  <si>
+    <t>TOMATO GUNDI</t>
+  </si>
+  <si>
+    <t>DEEPALEKAMBA-2</t>
+  </si>
+  <si>
+    <t>BINDHIGE POLISHED</t>
+  </si>
+  <si>
+    <t>264k01</t>
+  </si>
+  <si>
+    <t>264k02</t>
+  </si>
+  <si>
+    <t>264k03</t>
+  </si>
+  <si>
+    <t>264k04</t>
+  </si>
+  <si>
+    <t>264k05</t>
+  </si>
+  <si>
+    <t>264k06</t>
+  </si>
+  <si>
+    <t>TRIPLE STOVE</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>264k07</t>
+  </si>
+  <si>
+    <t>KADAYA</t>
   </si>
 </sst>
 </file>
@@ -113,9 +380,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,17 +664,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -463,22 +731,40 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -492,21 +778,1030 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>0</v>
       </c>
     </row>
